--- a/harapeko/harapeko.xlsx
+++ b/harapeko/harapeko.xlsx
@@ -243,7 +243,7 @@
     <t>星の紋章</t>
   </si>
   <si>
-    <t>unknow</t>
+    <t>NO-DATA</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +2564,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I46"/>
+  <dimension ref="A2:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
@@ -2989,9 +2989,9 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" ht="33.3" customHeight="1">
+    <row r="28" ht="23.35" customHeight="1">
       <c r="A28" t="s" s="5">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s" s="6">
         <v>76</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="29" ht="23.35" customHeight="1">
       <c r="A29" t="s" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s" s="6">
         <v>76</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="30" ht="23.35" customHeight="1">
       <c r="A30" t="s" s="5">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s" s="6">
         <v>76</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="31" ht="23.35" customHeight="1">
       <c r="A31" t="s" s="5">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s" s="6">
         <v>76</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="32" ht="23.35" customHeight="1">
       <c r="A32" t="s" s="5">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s" s="6">
         <v>76</v>
@@ -3064,9 +3064,9 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" ht="23.35" customHeight="1">
+    <row r="33" ht="18.3" customHeight="1">
       <c r="A33" t="s" s="5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s" s="6">
         <v>76</v>
@@ -3079,13 +3079,9 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" ht="18.3" customHeight="1">
-      <c r="A34" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="B34" t="s" s="6">
-        <v>76</v>
-      </c>
+    <row r="34" ht="23.35" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -3214,17 +3210,6 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-    </row>
-    <row r="46" ht="23.35" customHeight="1">
-      <c r="A46" s="9"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/harapeko/harapeko.xlsx
+++ b/harapeko/harapeko.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>装備合成</t>
   </si>
@@ -243,7 +243,94 @@
     <t>星の紋章</t>
   </si>
   <si>
+    <t>森B1〜20F</t>
+  </si>
+  <si>
+    <t>遺跡B1〜10F</t>
+  </si>
+  <si>
+    <t>森B1〜15F</t>
+  </si>
+  <si>
+    <t>森B1〜30F</t>
+  </si>
+  <si>
+    <t>遺跡B1〜25F</t>
+  </si>
+  <si>
+    <t>牢獄B1〜15F</t>
+  </si>
+  <si>
+    <t>遺跡B1〜30F</t>
+  </si>
+  <si>
+    <t>牢獄B1〜20F</t>
+  </si>
+  <si>
+    <t>森B1〜25F</t>
+  </si>
+  <si>
+    <t>遺跡B1〜15F</t>
+  </si>
+  <si>
+    <t>牢獄B1〜5F</t>
+  </si>
+  <si>
+    <t>森B11〜30F</t>
+  </si>
+  <si>
+    <t>遺跡B1〜20F</t>
+  </si>
+  <si>
+    <t>牢獄B1〜10F</t>
+  </si>
+  <si>
+    <t>森B41〜70F</t>
+  </si>
+  <si>
+    <t>遺跡B31〜60F</t>
+  </si>
+  <si>
+    <t>牢獄B21〜30F</t>
+  </si>
+  <si>
     <t>NO-DATA</t>
+  </si>
+  <si>
+    <t>森B16〜30F</t>
+  </si>
+  <si>
+    <t>遺跡B6〜30F</t>
+  </si>
+  <si>
+    <t>牢獄B1〜25F</t>
+  </si>
+  <si>
+    <t>牢獄B1〜30F</t>
+  </si>
+  <si>
+    <t>森B36〜65F</t>
+  </si>
+  <si>
+    <t>遺跡B21〜30F</t>
+  </si>
+  <si>
+    <t>牢獄B11〜30F</t>
+  </si>
+  <si>
+    <t>森B26〜30F</t>
+  </si>
+  <si>
+    <t>遺跡B16〜25F</t>
+  </si>
+  <si>
+    <t>牢獄B6〜15F</t>
+  </si>
+  <si>
+    <t>森B36〜70F</t>
+  </si>
+  <si>
+    <t>遺跡B26〜30F</t>
   </si>
 </sst>
 </file>
@@ -2876,7 +2963,9 @@
       <c r="B20" t="s" s="6">
         <v>76</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" t="s" s="6">
+        <v>77</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2889,9 +2978,11 @@
         <v>5</v>
       </c>
       <c r="B21" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="C21" t="s" s="6">
+        <v>70</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -2904,10 +2995,14 @@
         <v>17</v>
       </c>
       <c r="B22" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="C22" t="s" s="6">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s" s="6">
+        <v>81</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -2919,10 +3014,14 @@
         <v>38</v>
       </c>
       <c r="B23" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="C23" t="s" s="6">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s" s="6">
+        <v>83</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2934,10 +3033,14 @@
         <v>51</v>
       </c>
       <c r="B24" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="C24" t="s" s="6">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s" s="6">
+        <v>86</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -2949,10 +3052,14 @@
         <v>52</v>
       </c>
       <c r="B25" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="C25" t="s" s="6">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s" s="6">
+        <v>83</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -2964,10 +3071,14 @@
         <v>1</v>
       </c>
       <c r="B26" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="C26" t="s" s="6">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s" s="6">
+        <v>89</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -2979,10 +3090,14 @@
         <v>4</v>
       </c>
       <c r="B27" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="C27" t="s" s="6">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s" s="6">
+        <v>92</v>
+      </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -2994,7 +3109,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s" s="6">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3004,15 +3119,19 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" ht="23.35" customHeight="1">
+    <row r="29" ht="18.3" customHeight="1">
       <c r="A29" t="s" s="5">
         <v>10</v>
       </c>
       <c r="B29" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="C29" t="s" s="6">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s" s="6">
+        <v>96</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -3024,55 +3143,71 @@
         <v>29</v>
       </c>
       <c r="B30" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="C30" t="s" s="6">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s" s="6">
+        <v>97</v>
+      </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" ht="23.35" customHeight="1">
+    <row r="31" ht="33.3" customHeight="1">
       <c r="A31" t="s" s="5">
         <v>42</v>
       </c>
       <c r="B31" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="C31" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s" s="6">
+        <v>100</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" ht="23.35" customHeight="1">
+    <row r="32" ht="33.3" customHeight="1">
       <c r="A32" t="s" s="5">
         <v>50</v>
       </c>
       <c r="B32" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="C32" t="s" s="6">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s" s="6">
+        <v>103</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" ht="18.3" customHeight="1">
+    <row r="33" ht="33.3" customHeight="1">
       <c r="A33" t="s" s="5">
         <v>54</v>
       </c>
       <c r="B33" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s" s="6">
+        <v>92</v>
+      </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
